--- a/data/input/absenteeism_data_29.xlsx
+++ b/data/input/absenteeism_data_29.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32418</v>
+        <v>48383</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Sophie Fernandes</t>
+          <t>Yasmin Lopes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>10623.62</v>
+        <v>10645.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>81845</v>
+        <v>30772</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Evelyn Barbosa</t>
+          <t>Sabrina da Cruz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>5450.52</v>
+        <v>3350.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81336</v>
+        <v>2931</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luana Peixoto</t>
+          <t>Davi Lucca Fogaça</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>9537.33</v>
+        <v>3822.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81340</v>
+        <v>58231</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raul Mendes</t>
+          <t>Dr. Paulo da Cruz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>7677.22</v>
+        <v>8303.459999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17944</v>
+        <v>23332</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clarice das Neves</t>
+          <t>Lívia da Mota</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>4250.79</v>
+        <v>5424.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38226</v>
+        <v>21625</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Noah Farias</t>
+          <t>Daniela Gonçalves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>6580.79</v>
+        <v>11925.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>897</v>
+        <v>30455</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Caio Souza</t>
+          <t>Sra. Larissa Duarte</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>4393.48</v>
+        <v>12383.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98845</v>
+        <v>63032</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sarah da Paz</t>
+          <t>Cauê Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>6110.94</v>
+        <v>3509.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>92065</v>
+        <v>3349</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Augusto Monteiro</t>
+          <t>Brenda Fernandes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>12409.29</v>
+        <v>11312.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35168</v>
+        <v>71162</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thomas Campos</t>
+          <t>Leandro Duarte</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>8589.5</v>
+        <v>7057.89</v>
       </c>
     </row>
   </sheetData>
